--- a/database/seeds/area_keterangan.xlsx
+++ b/database/seeds/area_keterangan.xlsx
@@ -5,20 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pengelolaan_aset\database\seeds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Web\laragon\www\pengelolaan_aset\database\seeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4FBEA1-2FBA-4957-9EC0-C40FAE001245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD0FF1E-156A-4F5F-BBCC-E12B15448378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="area_keterangan" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -711,16 +720,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C500"/>
+  <dimension ref="A1:C376"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
+      <selection activeCell="A377" sqref="A377"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -4612,7 +4621,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="str">
-        <f t="shared" ref="A325:A388" si="7">IF(B325="","","AN" &amp; TEXT(ROW(A325)-1,"0000"))</f>
+        <f t="shared" ref="A325:A376" si="7">IF(B325="","","AN" &amp; TEXT(ROW(A325)-1,"0000"))</f>
         <v>AN0324</v>
       </c>
       <c r="B325" t="s">
@@ -5232,750 +5241,6 @@
       </c>
       <c r="C376" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A377" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A378" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A379" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A380" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A381" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A382" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A383" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A384" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A385" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A386" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A387" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A388" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A389" t="str">
-        <f t="shared" ref="A389:A452" si="8">IF(B389="","","AN" &amp; TEXT(ROW(A389)-1,"0000"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A390" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A391" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A392" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A393" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A394" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A395" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A396" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A397" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A398" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A399" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A400" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A401" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A402" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A403" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A404" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A405" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A406" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A407" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A408" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A409" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A410" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A411" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A412" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A413" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A414" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A415" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A416" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A417" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A418" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A419" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A420" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A421" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A422" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A423" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A424" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A425" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A426" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A427" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A428" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A429" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A430" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A431" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A432" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A433" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A434" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A435" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A436" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A437" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A438" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A439" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A440" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A441" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A442" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A443" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A444" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A445" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A446" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A447" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A448" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A449" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A450" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A451" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A452" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A453" t="str">
-        <f t="shared" ref="A453:A500" si="9">IF(B453="","","AN" &amp; TEXT(ROW(A453)-1,"0000"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A454" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A455" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A456" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A457" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A458" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A459" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A460" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A461" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A462" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A463" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A464" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A465" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A466" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A467" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A468" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A469" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A470" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A471" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A472" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A473" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A474" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A475" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A476" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A477" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A478" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A479" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A480" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A481" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A482" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A483" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A484" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A485" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A486" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A487" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A488" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A489" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A490" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A491" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A492" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A493" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A494" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A495" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A496" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A497" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A498" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A499" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A500" t="str">
-        <f t="shared" si="9"/>
-        <v/>
       </c>
     </row>
   </sheetData>
